--- a/Documentation/Testing/CinemaSea_Testing_v.0.4.xlsx
+++ b/Documentation/Testing/CinemaSea_Testing_v.0.4.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="245">
   <si>
     <t>Vytvořit film</t>
   </si>
@@ -736,6 +736,30 @@
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>checkActor_Create</t>
+  </si>
+  <si>
+    <t>checkActor_Update</t>
+  </si>
+  <si>
+    <t>checkUser_Create</t>
+  </si>
+  <si>
+    <t>NullPointerException při vkládání filmu</t>
+  </si>
+  <si>
+    <t>Empty persons arrays</t>
+  </si>
+  <si>
+    <t>Databáze obsahuje nový záznam.</t>
+  </si>
+  <si>
+    <t>Záznam upraven.</t>
+  </si>
+  <si>
+    <t>Nový uživatel v databázi.</t>
   </si>
 </sst>
 </file>
@@ -1226,6 +1250,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1285,12 +1315,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1613,12 +1637,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
@@ -1636,11 +1660,11 @@
       <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="44" t="s">
         <v>26</v>
       </c>
@@ -1652,11 +1676,11 @@
       <c r="B5" s="43">
         <v>2</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44" t="s">
         <v>26</v>
@@ -1668,11 +1692,11 @@
       <c r="B6" s="43">
         <v>3</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -1684,11 +1708,11 @@
       <c r="B7" s="43">
         <v>4</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44" t="s">
@@ -1700,11 +1724,11 @@
       <c r="B8" s="43">
         <v>5</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="44" t="s">
         <v>25</v>
       </c>
@@ -1722,11 +1746,11 @@
       <c r="B9" s="43">
         <v>6</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="44" t="s">
         <v>25</v>
       </c>
@@ -1738,11 +1762,11 @@
       <c r="B10" s="43">
         <v>7</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="44" t="s">
         <v>25</v>
       </c>
@@ -1754,11 +1778,11 @@
       <c r="B11" s="43">
         <v>8</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="44" t="s">
         <v>25</v>
       </c>
@@ -1770,11 +1794,11 @@
       <c r="B12" s="43">
         <v>9</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="44" t="s">
         <v>25</v>
       </c>
@@ -1792,11 +1816,11 @@
       <c r="B13" s="43">
         <v>10</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="44" t="s">
         <v>25</v>
       </c>
@@ -1814,11 +1838,11 @@
       <c r="B14" s="43">
         <v>11</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="44" t="s">
         <v>25</v>
       </c>
@@ -1830,11 +1854,11 @@
       <c r="B15" s="43">
         <v>12</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44" t="s">
         <v>25</v>
@@ -1850,11 +1874,11 @@
       <c r="B16" s="43">
         <v>13</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44" t="s">
         <v>27</v>
@@ -1870,11 +1894,11 @@
       <c r="B17" s="43">
         <v>14</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="44" t="s">
         <v>27</v>
       </c>
@@ -1886,11 +1910,11 @@
       <c r="B18" s="43">
         <v>15</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="44" t="s">
         <v>25</v>
       </c>
@@ -1908,11 +1932,11 @@
       <c r="B19" s="43">
         <v>16</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="44" t="s">
         <v>27</v>
       </c>
@@ -1924,11 +1948,11 @@
       <c r="B20" s="43">
         <v>17</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44" t="s">
@@ -1940,11 +1964,11 @@
       <c r="B21" s="43">
         <v>18</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44" t="s">
         <v>27</v>
@@ -1956,11 +1980,11 @@
       <c r="B22" s="43">
         <v>19</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -1972,11 +1996,11 @@
       <c r="B23" s="43">
         <v>20</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="44" t="s">
         <v>25</v>
       </c>
@@ -1986,11 +2010,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C23:E23"/>
@@ -2007,6 +2026,11 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2029,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:I96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2711,7 +2735,7 @@
       <c r="F58" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="G58" s="99">
+      <c r="G58" s="79">
         <v>0</v>
       </c>
       <c r="H58" s="30" t="s">
@@ -2752,7 +2776,7 @@
       <c r="F61" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="99">
+      <c r="G61" s="79">
         <v>3</v>
       </c>
       <c r="H61" s="30" t="s">
@@ -2793,7 +2817,7 @@
       <c r="F64" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="G64" s="99">
+      <c r="G64" s="79">
         <v>0</v>
       </c>
       <c r="H64" s="30" t="s">
@@ -2848,7 +2872,7 @@
       <c r="E68" s="75"/>
       <c r="F68" s="75"/>
       <c r="G68" s="69"/>
-      <c r="H68" s="98"/>
+      <c r="H68" s="78"/>
       <c r="I68" s="76"/>
     </row>
     <row r="69" spans="4:9" ht="15" x14ac:dyDescent="0.25">
@@ -2915,7 +2939,7 @@
     </row>
     <row r="73" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="D73" s="59">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E73" s="73" t="s">
         <v>231</v>
@@ -3003,7 +3027,7 @@
         <v>191</v>
       </c>
       <c r="G79" s="59" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="H79" s="30" t="s">
         <v>176</v>
@@ -3037,7 +3061,7 @@
         <v>192</v>
       </c>
       <c r="G82" s="59" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="H82" s="30" t="s">
         <v>176</v>
@@ -3065,13 +3089,13 @@
         <v>213</v>
       </c>
       <c r="E85" s="73" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="F85" s="73" t="s">
         <v>193</v>
       </c>
       <c r="G85" s="59" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="H85" s="30" t="s">
         <v>176</v>
@@ -3099,13 +3123,13 @@
         <v>214</v>
       </c>
       <c r="E88" s="73" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="F88" s="73" t="s">
         <v>194</v>
       </c>
       <c r="G88" s="59" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="H88" s="30" t="s">
         <v>176</v>
@@ -3133,13 +3157,13 @@
         <v>215</v>
       </c>
       <c r="E91" s="73" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="F91" s="73" t="s">
         <v>195</v>
       </c>
       <c r="G91" s="59" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="H91" s="30" t="s">
         <v>176</v>
@@ -3173,10 +3197,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G5"/>
+  <dimension ref="B3:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,6 +3268,26 @@
       </c>
       <c r="G5" s="47">
         <v>42504</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="16">
+        <v>211</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="47">
+        <v>42505</v>
       </c>
     </row>
   </sheetData>
@@ -3289,7 +3333,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="82" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3306,7 +3350,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="80"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
@@ -3321,7 +3365,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
@@ -3336,7 +3380,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="80"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
@@ -3358,7 +3402,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="83" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3375,7 +3419,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="81"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
@@ -3390,7 +3434,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="81"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
@@ -3436,7 +3480,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="83" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3453,7 +3497,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="81"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3468,7 +3512,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="81"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3483,7 +3527,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="81"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
@@ -3498,7 +3542,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="81"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
@@ -3513,7 +3557,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="81"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -3528,7 +3572,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="81"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
@@ -3543,7 +3587,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="81"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
@@ -3688,21 +3732,21 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="8">
         <v>1</v>
       </c>
@@ -4138,11 +4182,11 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="20" t="s">
@@ -4213,11 +4257,11 @@
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
@@ -4280,11 +4324,11 @@
       <c r="E18" s="4"/>
     </row>
     <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
@@ -4345,11 +4389,11 @@
       <c r="E27" s="4"/>
     </row>
     <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="20" t="s">
@@ -4447,12 +4491,12 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
@@ -4552,12 +4596,12 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
@@ -4640,12 +4684,12 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
@@ -4694,12 +4738,12 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
@@ -4953,15 +4997,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="34"/>
     </row>
     <row r="4" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -5125,15 +5169,15 @@
       <c r="J12" s="66"/>
     </row>
     <row r="13" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
       <c r="J13" s="61"/>
     </row>
     <row r="14" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5287,15 +5331,15 @@
       <c r="J22" s="34"/>
     </row>
     <row r="23" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
       <c r="J23" s="66"/>
     </row>
     <row r="24" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5415,15 +5459,15 @@
       <c r="J31" s="61"/>
     </row>
     <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
     </row>
     <row r="33" spans="3:9" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="8" t="s">
@@ -5922,21 +5966,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
@@ -5945,7 +5989,7 @@
       <c r="C3" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="95"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="29" t="s">
         <v>131</v>
       </c>
@@ -5966,17 +6010,17 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -6083,17 +6127,17 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="94"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
@@ -6161,17 +6205,17 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
@@ -6197,17 +6241,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">

--- a/Documentation/Testing/CinemaSea_Testing_v.0.4.xlsx
+++ b/Documentation/Testing/CinemaSea_Testing_v.0.4.xlsx
@@ -2010,6 +2010,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C23:E23"/>
@@ -2026,11 +2031,6 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2053,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:I96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="76" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="D76" s="59">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E76" s="73" t="s">
         <v>215</v>

--- a/Documentation/Testing/CinemaSea_Testing_v.0.4.xlsx
+++ b/Documentation/Testing/CinemaSea_Testing_v.0.4.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="CRUD" sheetId="1" r:id="rId1"/>
-    <sheet name="Popis testovaného systému" sheetId="2" r:id="rId2"/>
-    <sheet name="Overall test goals" sheetId="3" r:id="rId3"/>
-    <sheet name="Developement test goals" sheetId="4" r:id="rId4"/>
-    <sheet name="Sjednocené test goals" sheetId="5" r:id="rId5"/>
-    <sheet name="Pravděpodobnost selhání" sheetId="6" r:id="rId6"/>
-    <sheet name="Možnosti selhání" sheetId="7" r:id="rId7"/>
-    <sheet name="Určení rizik" sheetId="9" r:id="rId8"/>
-    <sheet name="Test levels" sheetId="8" r:id="rId9"/>
-    <sheet name="Testovací scénáře" sheetId="11" r:id="rId10"/>
-    <sheet name="Test cases" sheetId="12" r:id="rId11"/>
-    <sheet name="Report chyby" sheetId="10" r:id="rId12"/>
+    <sheet name="Popis testovaného systému" sheetId="2" r:id="rId1"/>
+    <sheet name="Overall test goals" sheetId="3" r:id="rId2"/>
+    <sheet name="Developement test goals" sheetId="4" r:id="rId3"/>
+    <sheet name="Sjednocené test goals" sheetId="5" r:id="rId4"/>
+    <sheet name="Pravděpodobnost selhání" sheetId="6" r:id="rId5"/>
+    <sheet name="Možnosti selhání" sheetId="7" r:id="rId6"/>
+    <sheet name="Určení rizik" sheetId="9" r:id="rId7"/>
+    <sheet name="Test levels" sheetId="8" r:id="rId8"/>
+    <sheet name="Testovací scénáře" sheetId="11" r:id="rId9"/>
+    <sheet name="Test cases" sheetId="12" r:id="rId10"/>
+    <sheet name="Report chyby" sheetId="10" r:id="rId11"/>
+    <sheet name="Testovací scenare" sheetId="13" r:id="rId12"/>
+    <sheet name="CRUD" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="283">
   <si>
     <t>Vytvořit film</t>
   </si>
@@ -39,9 +40,6 @@
     <t>Vytvořit herce</t>
   </si>
   <si>
-    <t>Přidat rok</t>
-  </si>
-  <si>
     <t>Přidat herce</t>
   </si>
   <si>
@@ -51,18 +49,6 @@
     <t>Přidat režiséra</t>
   </si>
   <si>
-    <t>Přidat popis</t>
-  </si>
-  <si>
-    <t>Přidat název</t>
-  </si>
-  <si>
-    <t>Přidat název EN</t>
-  </si>
-  <si>
-    <t>Přidat příjmení</t>
-  </si>
-  <si>
     <t>Zobrazit osobu</t>
   </si>
   <si>
@@ -99,9 +85,6 @@
     <t>REŽISÉR</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -760,13 +743,192 @@
   </si>
   <si>
     <t>Nový uživatel v databázi.</t>
+  </si>
+  <si>
+    <t>ID Testovacího scénáře</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Upravit rok</t>
+  </si>
+  <si>
+    <t>Upravit popis</t>
+  </si>
+  <si>
+    <t>Upravit název</t>
+  </si>
+  <si>
+    <t>Upravit název EN</t>
+  </si>
+  <si>
+    <t>Upravit příjmení</t>
+  </si>
+  <si>
+    <t>1 - 14 - 5 - 8 - 11 - 15 - 20 - 16</t>
+  </si>
+  <si>
+    <t>1 - 14 - 20 -7 - 8 - 10 - 14</t>
+  </si>
+  <si>
+    <t>Scénárista</t>
+  </si>
+  <si>
+    <t>Herec</t>
+  </si>
+  <si>
+    <t>Režisér</t>
+  </si>
+  <si>
+    <t>2 - 13 - 9 - 10 - 12 - 18</t>
+  </si>
+  <si>
+    <t>2 - 13 - 5 - 13</t>
+  </si>
+  <si>
+    <t>4 - 13 - 9 - 10 - 17</t>
+  </si>
+  <si>
+    <t>4 - 13 - 12 -5 - 13</t>
+  </si>
+  <si>
+    <t>3 - 13 - 12 - 10 - 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>Nážev testu</t>
+  </si>
+  <si>
+    <t>Vstupní podmínky</t>
+  </si>
+  <si>
+    <t>Testovací data</t>
+  </si>
+  <si>
+    <t>Operace s filmem</t>
+  </si>
+  <si>
+    <t>Scénář zahrnuje vytvoření filmu, jeho ohodnocení a posléze úpravu pár jeho dat, jakož je změna scénáristy,  režiséra a změna názvu filmu.</t>
+  </si>
+  <si>
+    <t>1. Rok filmu musí být vyšší jak 1900 a menší nebo roven aktuálnímu roku   2. Všechna pole musí být vyplněna</t>
+  </si>
+  <si>
+    <t>Operace se scénáristou</t>
+  </si>
+  <si>
+    <t>Movie:
+nameCZ: Země bez zákona
+nameEN: Lawless
+year: 2012
+Description: Dodo
+Režisér: Tester Tester
+Scénárista: Test Test
+Rating: 0.0</t>
+  </si>
+  <si>
+    <t>Movie:
+nameCZ: Zákon
+nameEN: Lawless
+year: 2012
+Description: Dodo
+Režisér: DumPerson1
+Scénárista: DumPerson2
+Rating: 5.0</t>
+  </si>
+  <si>
+    <t>Operace s hercem 1</t>
+  </si>
+  <si>
+    <t>Operace s hercem 2</t>
+  </si>
+  <si>
+    <t>Operace s režisérem</t>
+  </si>
+  <si>
+    <t>Scénář zahrnuje vytvoření scénáristy a posléze úpravu jeho jména, popisu a potom příjmení.</t>
+  </si>
+  <si>
+    <t>1. Rok narození scénáristy musí být vyšší jak 1900 a menší nebo roven aktuálnímu roku
+2. Všechna pole musí být vyplněna</t>
+  </si>
+  <si>
+    <t>Person:
+name: Indiana
+surname: Jonas
+year: 1901
+Description: The proffesor</t>
+  </si>
+  <si>
+    <t>Person:
+name: Harrison
+surname: Ford
+year: 2016
+Description: His favorite ship is Millenium Falcon.</t>
+  </si>
+  <si>
+    <t>Scénář zahrnuje vytvoření herce a posléze úpravu jeho jména a příjmení.</t>
+  </si>
+  <si>
+    <t>Person:
+name: Tom
+surname: Hardy
+year: 1995
+Description: The badass</t>
+  </si>
+  <si>
+    <t>Person:
+name: NoName1
+surname: NoName2
+year: 1995
+Description: The badass</t>
+  </si>
+  <si>
+    <t>Scénář zahrnuje vytvoření herce a posléze úpravu jeho příjmení a roku narození.</t>
+  </si>
+  <si>
+    <t>Person:
+name: Zoe
+surname: Saldana
+year: 1986
+Description: Gamora and Natiri in one body.</t>
+  </si>
+  <si>
+    <t>Person:
+name: Zoe
+surname: Salad
+year: 2015
+Description: Gamora and Natiri in one body.</t>
+  </si>
+  <si>
+    <t>3 - 19 - 5 - 9 - 13</t>
+  </si>
+  <si>
+    <t>Scénář zahrnuje vytvoření režiséra a posléze úpravu jeho roku narození a popisu.</t>
+  </si>
+  <si>
+    <t>Person:
+name: Ned
+surname: Stark
+year: 1921
+Description: True northman</t>
+  </si>
+  <si>
+    <t>Person:
+name: Ned
+surname: Stark
+year: 1956
+Description: King number one.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +1024,15 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1053,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1315,6 +1486,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,1681 +1836,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="6" max="9" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="43">
-        <v>1</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="43">
-        <v>2</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="43">
-        <v>3</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="43">
-        <v>4</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="43">
-        <v>5</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="43">
-        <v>6</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="43">
-        <v>7</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="43">
-        <v>8</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="43">
-        <v>9</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="43">
-        <v>10</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="43">
-        <v>11</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="43">
-        <v>12</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="43">
-        <v>13</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="43">
-        <v>14</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="43">
-        <v>15</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="43">
-        <v>16</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="43">
-        <v>17</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="44"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="43">
-        <v>18</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="43">
-        <v>19</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="43">
-        <v>20</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:I96"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" style="56"/>
-    <col min="4" max="4" width="4.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45" style="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="56"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D3" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="59">
-        <v>111</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D6" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="59">
-        <v>112</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D9" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="59">
-        <v>113</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D12" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="59">
-        <v>114</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D15" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D16" s="59">
-        <v>115</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D18" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="59">
-        <v>116</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D21" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D22" s="59">
-        <v>121</v>
-      </c>
-      <c r="E22" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="73" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D24" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="D25" s="59">
-        <v>122</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D27" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="D28" s="59">
-        <v>123</v>
-      </c>
-      <c r="E28" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="73" t="s">
-        <v>217</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D30" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D31" s="59">
-        <v>124</v>
-      </c>
-      <c r="E31" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="69"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D33" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D34" s="59">
-        <v>131</v>
-      </c>
-      <c r="E34" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="F34" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D36" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="D37" s="59">
-        <v>132</v>
-      </c>
-      <c r="E37" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D39" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D40" s="59">
-        <v>133</v>
-      </c>
-      <c r="E40" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="F40" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="G40" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D42" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D43" s="59">
-        <v>134</v>
-      </c>
-      <c r="E43" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="G43" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="H43" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D45" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D46" s="59">
-        <v>135</v>
-      </c>
-      <c r="E46" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="F46" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="G46" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D48" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D49" s="59">
-        <v>136</v>
-      </c>
-      <c r="E49" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="69"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="33"/>
-    </row>
-    <row r="51" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D51" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G51" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D52" s="59">
-        <v>137</v>
-      </c>
-      <c r="E52" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="F52" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="G52" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="69"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="33"/>
-    </row>
-    <row r="54" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D54" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G54" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D55" s="59">
-        <v>138</v>
-      </c>
-      <c r="E55" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="F55" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="G55" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="69"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="33"/>
-    </row>
-    <row r="57" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D57" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F57" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D58" s="59">
-        <v>141</v>
-      </c>
-      <c r="E58" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="F58" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="G58" s="79">
-        <v>0</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="69"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="33"/>
-    </row>
-    <row r="60" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D60" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G60" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H60" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D61" s="59">
-        <v>142</v>
-      </c>
-      <c r="E61" s="73" t="s">
-        <v>212</v>
-      </c>
-      <c r="F61" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="G61" s="79">
-        <v>3</v>
-      </c>
-      <c r="H61" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="69"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="33"/>
-    </row>
-    <row r="63" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D63" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F63" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G63" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D64" s="59">
-        <v>143</v>
-      </c>
-      <c r="E64" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="F64" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="G64" s="79">
-        <v>0</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D65" s="69"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="33"/>
-    </row>
-    <row r="66" spans="4:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D66" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F66" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G66" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H66" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="I66" s="76"/>
-    </row>
-    <row r="67" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D67" s="59">
-        <v>144</v>
-      </c>
-      <c r="E67" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="G67" s="59">
-        <v>0</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="I67" s="76"/>
-    </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="69"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="76"/>
-    </row>
-    <row r="69" spans="4:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D69" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F69" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G69" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H69" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="I69" s="76"/>
-    </row>
-    <row r="70" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D70" s="59">
-        <v>145</v>
-      </c>
-      <c r="E70" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="F70" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="G70" s="59">
-        <v>0</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="I70" s="76"/>
-    </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D71" s="69"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="76"/>
-    </row>
-    <row r="72" spans="4:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D72" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G72" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H72" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="I72" s="76"/>
-    </row>
-    <row r="73" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D73" s="59">
-        <v>146</v>
-      </c>
-      <c r="E73" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="F73" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="G73" s="59">
-        <v>1</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="I73" s="76"/>
-    </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D74" s="69"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="76"/>
-    </row>
-    <row r="75" spans="4:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D75" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F75" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G75" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H75" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="I75" s="76"/>
-    </row>
-    <row r="76" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D76" s="59">
-        <v>147</v>
-      </c>
-      <c r="E76" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="F76" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="G76" s="59">
-        <v>2</v>
-      </c>
-      <c r="H76" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="I76" s="76"/>
-    </row>
-    <row r="78" spans="4:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D78" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F78" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G78" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H78" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D79" s="59">
-        <v>211</v>
-      </c>
-      <c r="E79" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="F79" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="G79" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="H79" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D81" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F81" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G81" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H81" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D82" s="59">
-        <v>212</v>
-      </c>
-      <c r="E82" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="F82" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="G82" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="84" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D84" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F84" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G84" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H84" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D85" s="59">
-        <v>213</v>
-      </c>
-      <c r="E85" s="73" t="s">
-        <v>237</v>
-      </c>
-      <c r="F85" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="G85" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D87" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F87" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G87" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H87" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D88" s="59">
-        <v>214</v>
-      </c>
-      <c r="E88" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="F88" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G88" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="H88" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="4:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D90" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F90" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G90" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H90" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D91" s="59">
-        <v>215</v>
-      </c>
-      <c r="E91" s="73" t="s">
-        <v>239</v>
-      </c>
-      <c r="F91" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G91" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="H91" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F92" s="56"/>
-      <c r="H92" s="56"/>
-    </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F93" s="56"/>
-      <c r="H93" s="56"/>
-    </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F94" s="56"/>
-      <c r="H94" s="56"/>
-    </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F95" s="56"/>
-      <c r="H95" s="56"/>
-    </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F96" s="56"/>
-      <c r="H96" s="56"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="45">
-        <v>1</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="45">
-        <v>123</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="47">
-        <v>42503</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="16">
-        <v>114</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="47">
-        <v>42504</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="16">
-        <v>211</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="47">
-        <v>42505</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -3317,81 +1855,81 @@
   <sheetData>
     <row r="3" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="82" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="82"/>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="82"/>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="82"/>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3403,49 +1941,49 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="83" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="83"/>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="83"/>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3457,19 +1995,19 @@
     </row>
     <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3481,124 +2019,124 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="83" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="83"/>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="83"/>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="83"/>
       <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="83"/>
       <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="83"/>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="83"/>
       <c r="C21" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="83"/>
       <c r="C22" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +2150,1964 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:I96"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="56"/>
+    <col min="4" max="4" width="4.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D3" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="59">
+        <v>111</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D6" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="59">
+        <v>112</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="59">
+        <v>113</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D12" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="59">
+        <v>114</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D15" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D16" s="59">
+        <v>115</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D19" s="59">
+        <v>116</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D22" s="59">
+        <v>121</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D24" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="59">
+        <v>122</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D27" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="59">
+        <v>123</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D30" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D31" s="59">
+        <v>124</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="69"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D33" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D34" s="59">
+        <v>131</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D36" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="D37" s="59">
+        <v>132</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D39" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D40" s="59">
+        <v>133</v>
+      </c>
+      <c r="E40" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D42" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D43" s="59">
+        <v>134</v>
+      </c>
+      <c r="E43" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D45" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D46" s="59">
+        <v>135</v>
+      </c>
+      <c r="E46" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D48" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D49" s="59">
+        <v>136</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="F49" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="69"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D51" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D52" s="59">
+        <v>137</v>
+      </c>
+      <c r="E52" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="69"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D54" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D55" s="59">
+        <v>138</v>
+      </c>
+      <c r="E55" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="G55" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="69"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D57" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D58" s="59">
+        <v>141</v>
+      </c>
+      <c r="E58" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="G58" s="79">
+        <v>0</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="69"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="33"/>
+    </row>
+    <row r="60" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D60" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D61" s="59">
+        <v>142</v>
+      </c>
+      <c r="E61" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="G61" s="79">
+        <v>3</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="69"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D63" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D64" s="59">
+        <v>143</v>
+      </c>
+      <c r="E64" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="G64" s="79">
+        <v>0</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="69"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="33"/>
+    </row>
+    <row r="66" spans="4:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="D66" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="I66" s="76"/>
+    </row>
+    <row r="67" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D67" s="59">
+        <v>144</v>
+      </c>
+      <c r="E67" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="G67" s="59">
+        <v>0</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="I67" s="76"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="69"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="76"/>
+    </row>
+    <row r="69" spans="4:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="D69" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G69" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="H69" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="I69" s="76"/>
+    </row>
+    <row r="70" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D70" s="59">
+        <v>145</v>
+      </c>
+      <c r="E70" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="F70" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="G70" s="59">
+        <v>0</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="I70" s="76"/>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D71" s="69"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="76"/>
+    </row>
+    <row r="72" spans="4:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="D72" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="I72" s="76"/>
+    </row>
+    <row r="73" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D73" s="59">
+        <v>146</v>
+      </c>
+      <c r="E73" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="F73" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" s="59">
+        <v>1</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="I73" s="76"/>
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D74" s="69"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="76"/>
+    </row>
+    <row r="75" spans="4:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="D75" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="I75" s="76"/>
+    </row>
+    <row r="76" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D76" s="59">
+        <v>147</v>
+      </c>
+      <c r="E76" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F76" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="G76" s="59">
+        <v>2</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="I76" s="76"/>
+    </row>
+    <row r="78" spans="4:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="D78" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D79" s="59">
+        <v>211</v>
+      </c>
+      <c r="E79" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="F79" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="G79" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="H79" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D81" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F81" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D82" s="59">
+        <v>212</v>
+      </c>
+      <c r="E82" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="F82" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="G82" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D84" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F84" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G84" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H84" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D85" s="59">
+        <v>213</v>
+      </c>
+      <c r="E85" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="F85" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="G85" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="H85" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D87" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F87" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H87" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D88" s="59">
+        <v>214</v>
+      </c>
+      <c r="E88" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="F88" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G88" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="H88" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D90" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H90" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D91" s="59">
+        <v>215</v>
+      </c>
+      <c r="E91" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="F91" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="G91" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="H91" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F92" s="56"/>
+      <c r="H92" s="56"/>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F93" s="56"/>
+      <c r="H93" s="56"/>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F94" s="56"/>
+      <c r="H94" s="56"/>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F95" s="56"/>
+      <c r="H95" s="56"/>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F96" s="56"/>
+      <c r="H96" s="56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="45">
+        <v>1</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="45">
+        <v>123</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="47">
+        <v>42503</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="16">
+        <v>114</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="47">
+        <v>42504</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="16">
+        <v>211</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="47">
+        <v>42505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="110" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="111">
+        <v>2</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="112" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="112" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="111">
+        <v>3</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="113" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="111">
+        <v>5</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="113" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="111">
+        <v>6</v>
+      </c>
+      <c r="C7" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="113" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B8" s="111">
+        <v>8</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="113" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="6" max="9" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="43">
+        <v>1</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="43">
+        <v>2</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="43">
+        <v>3</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="43">
+        <v>4</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="43">
+        <v>5</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="43">
+        <v>6</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="43">
+        <v>7</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="43">
+        <v>8</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="43">
+        <v>9</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="43">
+        <v>10</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="43">
+        <v>11</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="43">
+        <v>12</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="43">
+        <v>13</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="43">
+        <v>14</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="43">
+        <v>15</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="43">
+        <v>16</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="43">
+        <v>17</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="43">
+        <v>18</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="43">
+        <v>19</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="43">
+        <v>20</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+    </row>
+    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="16">
+        <v>1</v>
+      </c>
+      <c r="D27" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="16">
+        <v>2</v>
+      </c>
+      <c r="D28" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+    </row>
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="105"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="16">
+        <v>3</v>
+      </c>
+      <c r="D32" s="106" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="108"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="16">
+        <v>4</v>
+      </c>
+      <c r="D33" s="106" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="108"/>
+    </row>
+    <row r="36" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="105"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="16">
+        <v>5</v>
+      </c>
+      <c r="D37" s="106" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="108"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="16">
+        <v>6</v>
+      </c>
+      <c r="D38" s="106" t="s">
+        <v>254</v>
+      </c>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="108"/>
+    </row>
+    <row r="41" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="105"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="16">
+        <v>7</v>
+      </c>
+      <c r="D42" s="106" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="108"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="16">
+        <v>8</v>
+      </c>
+      <c r="D43" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C19"/>
   <sheetViews>
@@ -3629,10 +4124,10 @@
   <sheetData>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -3640,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -3648,7 +4143,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -3656,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -3713,7 +4208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F23"/>
   <sheetViews>
@@ -3733,13 +4228,13 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="84" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4" s="86"/>
       <c r="F4" s="86"/>
@@ -3762,10 +4257,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3775,10 +4270,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3788,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3799,7 +4294,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3810,7 +4305,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3821,7 +4316,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3832,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3843,7 +4338,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3854,7 +4349,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3865,7 +4360,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3876,10 +4371,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3889,10 +4384,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3902,11 +4397,11 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -3915,11 +4410,11 @@
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -3928,11 +4423,11 @@
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -3941,12 +4436,12 @@
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -3973,7 +4468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C24"/>
   <sheetViews>
@@ -3990,10 +4485,10 @@
   <sheetData>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4001,39 +4496,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -4041,31 +4536,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -4073,15 +4568,15 @@
         <v>3</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -4089,71 +4584,71 @@
         <v>4</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4161,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E36"/>
   <sheetViews>
@@ -4183,70 +4678,70 @@
     </row>
     <row r="3" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="87" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>106</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -4258,199 +4753,199 @@
     </row>
     <row r="12" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="87" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D12" s="88"/>
       <c r="E12" s="89"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="87" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D21" s="88"/>
       <c r="E21" s="89"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" s="87" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D30" s="88"/>
       <c r="E30" s="89"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4464,7 +4959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G36"/>
   <sheetViews>
@@ -4492,7 +4987,7 @@
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="85" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
@@ -4503,16 +4998,16 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -4520,16 +5015,16 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -4537,16 +5032,16 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -4554,16 +5049,16 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -4571,16 +5066,16 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D8" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -4597,7 +5092,7 @@
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="85" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C10" s="85"/>
       <c r="D10" s="85"/>
@@ -4608,16 +5103,16 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
@@ -4625,16 +5120,16 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D12" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -4642,16 +5137,16 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -4659,16 +5154,16 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -4685,7 +5180,7 @@
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="85" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
@@ -4696,16 +5191,16 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -4713,16 +5208,16 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -4739,7 +5234,7 @@
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="85" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C20" s="85"/>
       <c r="D20" s="85"/>
@@ -4750,16 +5245,16 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -4767,16 +5262,16 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -4784,16 +5279,16 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -4801,16 +5296,16 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
@@ -4818,16 +5313,16 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
@@ -4835,16 +5330,16 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
@@ -4852,16 +5347,16 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -4869,16 +5364,16 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -4886,16 +5381,16 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>105</v>
-      </c>
       <c r="E29" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -4974,7 +5469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J77"/>
   <sheetViews>
@@ -4998,7 +5493,7 @@
   <sheetData>
     <row r="3" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="90" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D3" s="91"/>
       <c r="E3" s="91"/>
@@ -5010,128 +5505,128 @@
     </row>
     <row r="4" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J6" s="61"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="53" t="s">
-        <v>106</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J7" s="61"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>106</v>
-      </c>
       <c r="E8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="59" t="s">
-        <v>87</v>
-      </c>
       <c r="G8" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J8" s="61"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
@@ -5142,10 +5637,10 @@
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
@@ -5170,7 +5665,7 @@
     </row>
     <row r="13" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="90" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D13" s="91"/>
       <c r="E13" s="91"/>
@@ -5182,82 +5677,82 @@
     </row>
     <row r="14" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H14" s="58" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J15" s="61"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J16" s="61"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E17" s="59"/>
       <c r="F17" s="59"/>
@@ -5268,10 +5763,10 @@
     </row>
     <row r="18" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
@@ -5282,34 +5777,34 @@
     </row>
     <row r="19" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="59" t="s">
-        <v>88</v>
-      </c>
       <c r="G19" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="59" t="s">
-        <v>122</v>
-      </c>
       <c r="I19" s="60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J19" s="66"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
@@ -5332,7 +5827,7 @@
     </row>
     <row r="23" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="90" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D23" s="91"/>
       <c r="E23" s="91"/>
@@ -5344,34 +5839,34 @@
     </row>
     <row r="24" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C24" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
@@ -5382,10 +5877,10 @@
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="59"/>
@@ -5396,34 +5891,34 @@
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H27" s="59" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I27" s="71" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J27" s="61"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
@@ -5434,10 +5929,10 @@
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
@@ -5460,7 +5955,7 @@
     </row>
     <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" s="90" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D32" s="91"/>
       <c r="E32" s="91"/>
@@ -5471,33 +5966,33 @@
     </row>
     <row r="33" spans="3:9" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E34" s="59"/>
       <c r="F34" s="59"/>
@@ -5507,10 +6002,10 @@
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
@@ -5520,10 +6015,10 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D36" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E36" s="59"/>
       <c r="F36" s="59"/>
@@ -5533,10 +6028,10 @@
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D37" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E37" s="59"/>
       <c r="F37" s="59"/>
@@ -5546,241 +6041,241 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H38" s="59" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I38" s="60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H39" s="59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I39" s="68" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F40" s="59" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H40" s="59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I40" s="68" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H41" s="59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I41" s="68" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H42" s="59" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I42" s="60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F43" s="59" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H43" s="59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I43" s="68" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H44" s="59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I44" s="68" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F45" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="30" t="s">
-        <v>105</v>
-      </c>
       <c r="H45" s="59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I45" s="68" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C58" s="17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="C59" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D59" s="73" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="C60" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D60" s="73" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C61" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D61" s="73" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="3:5" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C62" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="73" t="s">
-        <v>87</v>
-      </c>
       <c r="E62" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
@@ -5790,35 +6285,35 @@
     </row>
     <row r="64" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="C64" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="73" t="s">
-        <v>88</v>
-      </c>
       <c r="E64" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="3:5" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C65" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D65" s="73" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="C66" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D66" s="73" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
@@ -5828,13 +6323,13 @@
     </row>
     <row r="68" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="C68" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D68" s="73" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
@@ -5844,90 +6339,90 @@
     </row>
     <row r="70" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C70" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D70" s="73" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C71" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D71" s="73" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C72" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D72" s="73" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C73" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D73" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="74" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C74" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D74" s="73" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C75" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D75" s="73" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C76" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D76" s="73" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C77" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D77" s="73" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5942,7 +6437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J23"/>
   <sheetViews>
@@ -5967,14 +6462,14 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="95" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" s="96"/>
       <c r="D2" s="97" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
@@ -5984,34 +6479,34 @@
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D3" s="97"/>
       <c r="E3" s="29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="92" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="93"/>
@@ -6024,111 +6519,111 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="92" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
@@ -6141,72 +6636,72 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="92" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C13" s="93"/>
       <c r="D13" s="93"/>
@@ -6219,22 +6714,22 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -6242,7 +6737,7 @@
     </row>
     <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="92" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="93"/>
@@ -6255,180 +6750,180 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6444,4 +6939,16 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Testing/CinemaSea_Testing_v.0.4.xlsx
+++ b/Documentation/Testing/CinemaSea_Testing_v.0.4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Popis testovaného systému" sheetId="2" r:id="rId1"/>
@@ -1427,111 +1427,111 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1550,9 +1550,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1590,7 +1590,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1662,7 +1662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="86" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1888,7 +1888,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="82"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1903,7 +1903,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="82"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="4" t="s">
         <v>43</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="82"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="87" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1957,7 +1957,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="83"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="4" t="s">
         <v>49</v>
       </c>
@@ -1972,7 +1972,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="83"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="87" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2035,7 +2035,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="83"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
@@ -2050,7 +2050,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="83"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="83"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="83"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="83"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
@@ -2110,7 +2110,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="83"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="4" t="s">
         <v>41</v>
       </c>
@@ -2125,7 +2125,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="83"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
@@ -2154,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:I96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H78" sqref="D78:H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3301,7 +3301,7 @@
   <dimension ref="B3:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G6" sqref="B3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,7 +3388,7 @@
         <v>159</v>
       </c>
       <c r="G6" s="47">
-        <v>42505</v>
+        <v>42513</v>
       </c>
     </row>
   </sheetData>
@@ -3401,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,122 +3416,122 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="109" t="s">
+      <c r="E3" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="81" t="s">
         <v>259</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="81" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="111">
+      <c r="B4" s="83">
         <v>2</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="F4" s="113" t="s">
+      <c r="F4" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="85" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B5" s="111">
+      <c r="B5" s="83">
         <v>3</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="85" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="111">
+      <c r="B6" s="83">
         <v>5</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="85" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="111">
+      <c r="B7" s="83">
         <v>6</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="84" t="s">
         <v>276</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="85" t="s">
         <v>277</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="85" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="111">
+      <c r="B8" s="83">
         <v>8</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="112" t="s">
+      <c r="D8" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="113" t="s">
+      <c r="G8" s="85" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,12 +3557,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="42" t="s">
         <v>15</v>
       </c>
@@ -3580,11 +3580,11 @@
       <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="44" t="s">
         <v>20</v>
       </c>
@@ -3596,11 +3596,11 @@
       <c r="B5" s="43">
         <v>2</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44" t="s">
         <v>20</v>
@@ -3612,11 +3612,11 @@
       <c r="B6" s="43">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -3628,11 +3628,11 @@
       <c r="B7" s="43">
         <v>4</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44" t="s">
@@ -3644,11 +3644,11 @@
       <c r="B8" s="43">
         <v>5</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
       <c r="F8" s="44" t="s">
         <v>19</v>
       </c>
@@ -3666,11 +3666,11 @@
       <c r="B9" s="43">
         <v>6</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="44" t="s">
         <v>19</v>
       </c>
@@ -3682,11 +3682,11 @@
       <c r="B10" s="43">
         <v>7</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="44" t="s">
         <v>19</v>
       </c>
@@ -3698,11 +3698,11 @@
       <c r="B11" s="43">
         <v>8</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="44" t="s">
         <v>19</v>
       </c>
@@ -3714,11 +3714,11 @@
       <c r="B12" s="43">
         <v>9</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="44" t="s">
         <v>19</v>
       </c>
@@ -3736,11 +3736,11 @@
       <c r="B13" s="43">
         <v>10</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="112" t="s">
         <v>243</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
       <c r="F13" s="44" t="s">
         <v>19</v>
       </c>
@@ -3758,11 +3758,11 @@
       <c r="B14" s="43">
         <v>11</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="112" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="44" t="s">
         <v>19</v>
       </c>
@@ -3774,11 +3774,11 @@
       <c r="B15" s="43">
         <v>12</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="112" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44" t="s">
         <v>19</v>
@@ -3794,11 +3794,11 @@
       <c r="B16" s="43">
         <v>13</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44" t="s">
         <v>21</v>
@@ -3814,11 +3814,11 @@
       <c r="B17" s="43">
         <v>14</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
       <c r="F17" s="44" t="s">
         <v>21</v>
       </c>
@@ -3830,11 +3830,11 @@
       <c r="B18" s="43">
         <v>15</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
       <c r="F18" s="44" t="s">
         <v>19</v>
       </c>
@@ -3846,11 +3846,11 @@
       <c r="B19" s="43">
         <v>16</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
       <c r="F19" s="44" t="s">
         <v>21</v>
       </c>
@@ -3862,11 +3862,11 @@
       <c r="B20" s="43">
         <v>17</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44" t="s">
@@ -3878,11 +3878,11 @@
       <c r="B21" s="43">
         <v>18</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44" t="s">
         <v>21</v>
@@ -3894,11 +3894,11 @@
       <c r="B22" s="43">
         <v>19</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -3910,11 +3910,11 @@
       <c r="B23" s="43">
         <v>20</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
       <c r="F23" s="44" t="s">
         <v>19</v>
       </c>
@@ -3923,164 +3923,155 @@
       <c r="I23" s="44"/>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="100" t="s">
+      <c r="C26" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="16">
         <v>1</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="16">
         <v>2</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
     </row>
     <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="D31" s="103" t="s">
+      <c r="D31" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="16">
         <v>3</v>
       </c>
-      <c r="D32" s="106" t="s">
+      <c r="D32" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="109"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="16">
         <v>4</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="107" t="s">
         <v>252</v>
       </c>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="109"/>
     </row>
     <row r="36" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="100" t="s">
+      <c r="C36" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="D36" s="103" t="s">
+      <c r="D36" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="16">
         <v>5</v>
       </c>
-      <c r="D37" s="106" t="s">
+      <c r="D37" s="107" t="s">
         <v>253</v>
       </c>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="109"/>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="16">
         <v>6</v>
       </c>
-      <c r="D38" s="106" t="s">
+      <c r="D38" s="107" t="s">
         <v>254</v>
       </c>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="109"/>
     </row>
     <row r="41" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="D41" s="103" t="s">
+      <c r="D41" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="106"/>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="16">
         <v>7</v>
       </c>
-      <c r="D42" s="106" t="s">
+      <c r="D42" s="107" t="s">
         <v>255</v>
       </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="109"/>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="16">
         <v>8</v>
       </c>
-      <c r="D43" s="106" t="s">
+      <c r="D43" s="107" t="s">
         <v>279</v>
       </c>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C16:E16"/>
@@ -4097,10 +4088,19 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4227,21 +4227,21 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="8">
         <v>1</v>
       </c>
@@ -4677,11 +4677,11 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="20" t="s">
@@ -4752,11 +4752,11 @@
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
@@ -4819,11 +4819,11 @@
       <c r="E18" s="4"/>
     </row>
     <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="93"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
@@ -4884,11 +4884,11 @@
       <c r="E27" s="4"/>
     </row>
     <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="20" t="s">
@@ -4986,12 +4986,12 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
@@ -5091,12 +5091,12 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
@@ -5179,12 +5179,12 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
@@ -5233,12 +5233,12 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
@@ -5492,15 +5492,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
       <c r="J3" s="34"/>
     </row>
     <row r="4" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -5664,15 +5664,15 @@
       <c r="J12" s="66"/>
     </row>
     <row r="13" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="61"/>
     </row>
     <row r="14" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5826,15 +5826,15 @@
       <c r="J22" s="34"/>
     </row>
     <row r="23" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
       <c r="J23" s="66"/>
     </row>
     <row r="24" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5954,15 +5954,15 @@
       <c r="J31" s="61"/>
     </row>
     <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="90" t="s">
+      <c r="C32" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
     </row>
     <row r="33" spans="3:9" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="8" t="s">
@@ -6461,21 +6461,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
@@ -6484,7 +6484,7 @@
       <c r="C3" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="97"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="29" t="s">
         <v>125</v>
       </c>
@@ -6505,17 +6505,17 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -6622,17 +6622,17 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="98"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
@@ -6700,17 +6700,17 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="98"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
@@ -6736,17 +6736,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="98"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
